--- a/medicine/Handicap/Handicap_(polo)/Handicap_(polo).xlsx
+++ b/medicine/Handicap/Handicap_(polo)/Handicap_(polo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un handicap de Polo est un système créé par Henry Lloyd Herbert, le premier président de l’Association de polo des États-Unis, lors de la fondation de cette association en 1890, pour que les équipes soient choisies au mieux avec des joueurs de capacités différentes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un handicap de Polo est un système créé par Henry Lloyd Herbert, le premier président de l’Association de polo des États-Unis, lors de la fondation de cette association en 1890, pour que les équipes soient choisies au mieux avec des joueurs de capacités différentes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les joueurs sont évalués sur une échelle de moins -2 à 10 goals. Le niveau -2 indique un joueur novice, tandis qu’un joueur évalué à 10 goals a le handicap le plus élevé possible. Il est tellement difficile d’atteindre un handicap de 10 goals que ce niveau n’est attribué qu’à environ deux douzaines de joueurs dans le monde, et qu’environ les deux tiers des licenciés ont un handicap de deux buts ou moins. Tous les joueurs vivants avec le handicap de 10 goals sont argentins, à l’exception de David Stirling qui est né en Uruguay – bien qu’il joue en Argentine aussi.
 Les handicaps de cinq goals et plus caractérisent généralement des joueurs professionnels. Ce n’est pas, ni n’a jamais été, une estimation du nombre de buts qu’un joueur pourrait marquer lors d’une rencontre, mais plutôt l’évaluation de la valeur du joueur pour son équipe. Il s’agit de l’évaluation globale du niveau d’équitation d’un joueur, du jeu d’équipe, de la connaissance du jeu, de la stratégie et des chevaux. À l’époque, le polo était le seul sport au monde qui considérait l’esprit sportif lors de la notation d’un joueur.
@@ -544,9 +558,11 @@
           <t>Répartition en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les données de la Fédération française de Polo, la France comptait, en 2013, 53 % de joueurs de handicap 3, 16 % de handicap 4, 11 % de handicap 5, et enfin 10 % de handicap 6[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les données de la Fédération française de Polo, la France comptait, en 2013, 53 % de joueurs de handicap 3, 16 % de handicap 4, 11 % de handicap 5, et enfin 10 % de handicap 6.
 </t>
         </is>
       </c>
@@ -577,21 +593,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Joueurs avec un handicap de 10 buts
-Rodolphe Louis Agassiz (1871-1933) - États-Unis d'Amérique[3]
+          <t>Joueurs avec un handicap de 10 buts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rodolphe Louis Agassiz (1871-1933) - États-Unis d'Amérique
 Mariano Aguerre (né en 1969) - Argentine / États-Unis d'Amérique
 Mike Azzaro - États-Unis d'Amérique
 Tomas Hernández Gómez (né en 1993) - Mexico / États-Unis d'Amérique
 Miguel Novillo Astrada - Argentine
 Adolfo Cambiaso (né en 1975) - Argentine
-Bartolomé Castagnola (né en 1970) - Argentine[4]
+Bartolomé Castagnola (né en 1970) - Argentine
 Carlos Gracida (1960-2014) - Mexico
 Alfredo Harriott
 Alberto Pedro Heguy
 Bautista Heguy - Argentine / England
 Ignacio Heguy - Argentine
 Marcos Heguy - Argentine
-Sinclair Hill (né en 1934) - Australie[5]
+Sinclair Hill (né en 1934) - Australie
 Lewis Lawrence Lacey (1887-1966) - Argentine.
 Pablo Mac Donough (né en 1982) - Argentine / Espagne / États-Unis d'Amérique
 Augusto Mántaras  (né en 1997) - Argentine
@@ -601,16 +622,50 @@
 Francisco Felix Penna
 Facundo Pieres (né en 1986) - Argentine / États-Unis d'Amérique
 Gonzalo Pieres, Jr. (né en 1982) - Argentine / France
-Pablo (Polito) Pieres (né en 1987)  - Argentine[6],[7]
-Aidan Roark (1905-1984) - Irlande[8]
+Pablo (Polito) Pieres (né en 1987)  - Argentine,
+Aidan Roark (1905-1984) - Irlande
 Bob Skene (1914–1997)- Australie
-David Stirling (né en 1981) - Uruguay[9]
-Louis Ezekiel Stoddard (1881-1951) - États-Unis d'Amérique[10]
-John Arthur Edward Traill (1882-1958) - Argentine / Irlande[11]
-Hilario Ulloa (né en 1985) - Argentine[12]
-Tommy Wayman (né en 1946) - États-Unis d'Amérique
-Joueurs avec un handicap de 9 buts
-Eduardo Novillo Astrada - Argentine
+David Stirling (né en 1981) - Uruguay
+Louis Ezekiel Stoddard (1881-1951) - États-Unis d'Amérique
+John Arthur Edward Traill (1882-1958) - Argentine / Irlande
+Hilario Ulloa (né en 1985) - Argentine
+Tommy Wayman (né en 1946) - États-Unis d'Amérique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Handicap_(polo)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_(polo)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Joueurs ayant atteint les plus hauts niveaux de handicap</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Joueurs avec un handicap de 9 buts</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eduardo Novillo Astrada - Argentine
 Ignacio Novillo Astrada - Argentine
 Javier Novillo Astrada - Argentine
 Major Sardar Joginder Singh Baidwan (1904-1940)
@@ -627,9 +682,43 @@
 Juan I. Merlos - Argentine
 Sebastian Merlos - Argentine
 Lucas Monteverde (né en 1976) - Argentine
-Juan Martin Nero - Argentine
-Joueurs avec un handicap de 8 buts
-German Joppich
+Juan Martin Nero - Argentine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Handicap_(polo)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handicap_(polo)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Joueurs ayant atteint les plus hauts niveaux de handicap</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Joueurs avec un handicap de 8 buts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>German Joppich
 Tomas García Del Rio - Argentine</t>
         </is>
       </c>
